--- a/Project_C/Assets/ExcelTable/Table.xlsx
+++ b/Project_C/Assets/ExcelTable/Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\학교\졸작\팀아이~1\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\학교\졸작\팀 아이덴티티\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3134058F-C7C7-40AD-898D-06FB506AB85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537E74BB-31FA-4BF0-9C8E-54FF0E5AEBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="155">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,75 +266,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resources/Sprites/card_power_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Sprites/card_family_kill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Sprites/card_atk_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s_IconStatePath</t>
   </si>
   <si>
-    <t>Sprite/IconState/state_attack_up</t>
-  </si>
-  <si>
-    <t>Sprite/IconState/state_attack_down</t>
-  </si>
-  <si>
-    <t>Sprite/IconState/state_speed_up</t>
-  </si>
-  <si>
-    <t>Sprite/IconState/state_stun</t>
-  </si>
-  <si>
-    <t>Sprite/IconState/state_binding</t>
-  </si>
-  <si>
-    <t>Sprite/IconState/state_silence</t>
-  </si>
-  <si>
-    <t>Sprite/IconState/state_slow</t>
-  </si>
-  <si>
-    <t>Sprite/IconState/state_godmode</t>
-  </si>
-  <si>
-    <t>Sprite/IconState/state_aggro_godmode</t>
-  </si>
-  <si>
-    <t>Sprite/IconState/state_super_armor</t>
-  </si>
-  <si>
-    <t>Sprite/IconState/state_hit</t>
-  </si>
-  <si>
-    <t>Sprite/IconState/state_death</t>
-  </si>
-  <si>
-    <t>Sprite/IconAbility/ability_aggro</t>
-  </si>
-  <si>
-    <t>Sprite/IconAbility/ability_heal</t>
-  </si>
-  <si>
-    <t>Sprite/IconAbility/ability_recall</t>
-  </si>
-  <si>
-    <t>Sprite/IconAbility/ability_cant_attack</t>
-  </si>
-  <si>
-    <t>Sprite/IconAbility/ability_cant_move</t>
-  </si>
-  <si>
-    <t>Sprite/IconAbility/ability_draw</t>
-  </si>
-  <si>
     <t>아군공업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,42 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/IconAbility/ability_card_destroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/IconAbility/ability_speed_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/IconAbility/ability_attack_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/IconAbility/ability_attack_down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/IconAbility/ability_stun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/IconAbility/ability_binding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/IconAbility/ability_silence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/IconAbility/ability_godmode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/IconAbility/ability_slow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지면 강타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,6 +491,124 @@
   </si>
   <si>
     <t>능력6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_attack_up</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_attack_down</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_speed_up</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_slow</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_stun</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_binding</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_silence</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_godmode</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_aggro_godmode</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_super_armor</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_hit</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_death</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_attack_up</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_attack_down</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_speed_up</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_slow</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_stun</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_binding</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_silence</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_godmode</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_aggro</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_heal</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_recall</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_cant_attack</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_cant_move</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_draw</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_card_destroy</t>
+  </si>
+  <si>
+    <t>Resources/Sprites/Card/card_power_atk</t>
+  </si>
+  <si>
+    <t>Resources/Sprites/Card/card_family_kill</t>
+  </si>
+  <si>
+    <t>Resources/Sprites/Card/card_atk_up</t>
+  </si>
+  <si>
+    <t>Resources/Sprites/Card/card_player_atk_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Sprites/Card/card_player_speed_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Sprites/Card/card_silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Sprites/Card/card_change_slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Sprites/Card/card_slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Sprites/Card/card_draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Sprites/Card/card_earthquake_atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1171,10 +1187,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -1182,10 +1198,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>101</v>
@@ -1193,10 +1209,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>102</v>
@@ -1204,10 +1220,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>103</v>
@@ -1215,10 +1231,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>104</v>
@@ -1226,10 +1242,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>105</v>
@@ -1237,10 +1253,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>106</v>
@@ -1248,10 +1264,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>107</v>
@@ -1259,10 +1275,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>108</v>
@@ -1270,10 +1286,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>109</v>
@@ -1281,10 +1297,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>110</v>
@@ -1292,10 +1308,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>111</v>
@@ -1303,10 +1319,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>112</v>
@@ -1314,10 +1330,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>201</v>
@@ -1325,10 +1341,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C15">
         <v>202</v>
@@ -1336,10 +1352,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>203</v>
@@ -1347,10 +1363,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C17">
         <v>204</v>
@@ -1358,10 +1374,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C18">
         <v>205</v>
@@ -1369,10 +1385,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C19">
         <v>206</v>
@@ -1380,10 +1396,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C20">
         <v>207</v>
@@ -1391,10 +1407,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C21">
         <v>208</v>
@@ -1402,10 +1418,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C22">
         <v>209</v>
@@ -1413,10 +1429,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C23">
         <v>210</v>
@@ -1424,10 +1440,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C24">
         <v>211</v>
@@ -1435,10 +1451,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C25">
         <v>212</v>
@@ -1446,10 +1462,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C26">
         <v>213</v>
@@ -1457,10 +1473,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C27">
         <v>214</v>
@@ -1468,10 +1484,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C28">
         <v>215</v>
@@ -1487,11 +1503,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D22343-9645-4D28-A576-D6EA3C2916DA}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1502,7 +1520,7 @@
         <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1524,7 +1542,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1535,7 +1553,7 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1546,7 +1564,7 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1557,7 +1575,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1568,7 +1586,7 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1579,7 +1597,7 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1590,7 +1608,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1601,7 +1619,7 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1612,7 +1630,7 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1623,7 +1641,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1634,7 +1652,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1645,7 +1663,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1667,11 +1685,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC681EA-4A23-4724-98CE-EDABF75CE8C8}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1701,10 +1721,10 @@
         <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1712,10 +1732,10 @@
         <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1723,10 +1743,10 @@
         <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1734,10 +1754,10 @@
         <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1745,10 +1765,10 @@
         <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1756,10 +1776,10 @@
         <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1767,10 +1787,10 @@
         <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1778,10 +1798,10 @@
         <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1792,7 +1812,7 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1803,7 +1823,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1814,7 +1834,7 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1825,7 +1845,7 @@
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1836,7 +1856,7 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1847,7 +1867,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1858,7 +1878,7 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1876,13 +1896,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E753C-6524-4C6B-A4E5-ABF95E8D22E8}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
@@ -1949,7 +1971,7 @@
         <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1975,7 +1997,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2001,7 +2023,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2026,7 +2048,9 @@
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
@@ -2048,7 +2072,9 @@
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
@@ -2070,7 +2096,9 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
@@ -2092,7 +2120,9 @@
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
@@ -2114,7 +2144,9 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
@@ -2136,7 +2168,9 @@
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
@@ -2153,10 +2187,13 @@
         <v>310</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -2208,22 +2245,22 @@
         <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -2240,40 +2277,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>20</v>
@@ -2287,7 +2324,7 @@
         <v>501</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -2302,25 +2339,25 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="N3" s="1">
         <v>2</v>
@@ -2332,7 +2369,7 @@
         <v>501</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -2347,25 +2384,25 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2516,6 +2553,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x01010015C4E6E158ECAA418C6B952D1FB9372F" ma:contentTypeVersion="7" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="4bbe8cf3ddc823bb2b9b04ca0b6d785f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ba0c99f-4851-42f8-a44c-096a750684f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76ccdb2f795e672dc5e711efdcf336c8" ns2:_="">
     <xsd:import namespace="0ba0c99f-4851-42f8-a44c-096a750684f0"/>
@@ -2679,22 +2731,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA77AE4-4BF9-49E4-9E51-356D8E79B84B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2710,21 +2764,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Project_C/Assets/ExcelTable/Table.xlsx
+++ b/Project_C/Assets/ExcelTable/Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\학교\졸작\팀 아이덴티티\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537E74BB-31FA-4BF0-9C8E-54FF0E5AEBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7982520F-242C-432A-BAED-A7D0CBB73EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
+    <workbookView xWindow="1140" yWindow="1620" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumTable" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="188">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,18 +47,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s_Cardname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카드 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s_Cardtext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어블 텍스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>슬라임 변이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i_Cardcost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수치1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,488 +111,635 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PlayerPowerAttackAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerFamilyKillAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_Parameter[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 하나의 이동속도를 _ 초 동안 _ 감소 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드를 _ 장 드로우 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터의 이동 속도를 _ 초 동안 _  증가 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터의 기본 공격력을 _ 초 동안 _ 강화합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼아머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드파괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도발무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_StatePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 내 적에게 _ 의 데미지를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 방에 있는 동일한 유닛에게 _ 의 데미지를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 주문력을 _ 강화합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 이미지 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_FSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_IconStatePath</t>
+  </si>
+  <si>
+    <t>아군공업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약화부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속박부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침묵부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군속업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로우부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지면 강타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterStateType</t>
+  </si>
+  <si>
+    <t>E_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_IncreaseDamage</t>
+  </si>
+  <si>
+    <t>E_IncreaseDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_DecreaseDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_IncreaseSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_DecreaseSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_Stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_Slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_Hold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_Invincibility</t>
+  </si>
+  <si>
+    <t>E_TauntInvincibility</t>
+  </si>
+  <si>
+    <t>E_Hit</t>
+  </si>
+  <si>
+    <t>E_SuperArmor</t>
+  </si>
+  <si>
+    <t>E_Silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_Dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterAbilityType</t>
+  </si>
+  <si>
+    <t>E_GiveStun</t>
+  </si>
+  <si>
+    <t>E_GiveHold</t>
+  </si>
+  <si>
+    <t>E_GiveSilence</t>
+  </si>
+  <si>
+    <t>E_GiveInvincibility</t>
+  </si>
+  <si>
+    <t>E_Taunt</t>
+  </si>
+  <si>
+    <t>E_GiveHeal</t>
+  </si>
+  <si>
+    <t>E_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_NonAttack</t>
+  </si>
+  <si>
+    <t>E_NonMove</t>
+  </si>
+  <si>
+    <t>E_GiveDraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_CardBreak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 사망 시 작은 슬라임 _마리로 분열합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 아무런 효과도 가지고 있지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterAbilityType_Abilities[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_attack_up</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_attack_down</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_speed_up</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_slow</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_stun</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_binding</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_silence</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_godmode</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_aggro_godmode</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_super_armor</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_hit</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconState/state_death</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_attack_up</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_attack_down</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_speed_up</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_slow</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_stun</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_binding</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_silence</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_godmode</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_aggro</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_heal</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_recall</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_cant_attack</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_cant_move</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_draw</t>
+  </si>
+  <si>
+    <t>Resource/Sprites/IconAbility/ability_card_destroy</t>
+  </si>
+  <si>
+    <t>Sprites/Card/card_power_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_family_kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_atk_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_player_atk_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_player_speed_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_change_slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Card/card_earthquake_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_Lore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_ImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덩굴정령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린 약탈자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린 보부상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변태고블린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린 취객</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_GiveHold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_CardBreak</t>
+  </si>
+  <si>
+    <t>E_GiveDraw</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_krName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSlime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodTotem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoblinStealer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoblinStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoblinHentai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoblinDrunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamilyKill</t>
+  </si>
+  <si>
     <t>PlayerCardPowerUpAction</t>
-  </si>
-  <si>
-    <t>PlayerPowerAttackAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerFamilyKillAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_Parameter[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 하나의 이동속도를 _ 초 동안 _ 감소 시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드를 _ 장 드로우 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터의 이동 속도를 _ 초 동안 _  증가 시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터의 기본 공격력을 _ 초 동안 _ 강화합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이콘 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈퍼아머</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드파괴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이속증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도발무적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격불가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>죽음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동불가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_StatePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위 내 적에게 _ 의 데미지를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>같은 방에 있는 동일한 유닛에게 _ 의 데미지를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드 주문력을 _ 강화합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_CardImagePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드 이미지 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_FSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_IconStatePath</t>
-  </si>
-  <si>
-    <t>아군공업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약화부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속박부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스턴부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침묵부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군속업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬로우부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지면 강타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterStateType</t>
-  </si>
-  <si>
-    <t>E_Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_IncreaseDamage</t>
-  </si>
-  <si>
-    <t>E_IncreaseDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_DecreaseDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_IncreaseSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_DecreaseSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_Stun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_Slow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_Hold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_Invincibility</t>
-  </si>
-  <si>
-    <t>E_TauntInvincibility</t>
-  </si>
-  <si>
-    <t>E_Hit</t>
-  </si>
-  <si>
-    <t>E_SuperArmor</t>
-  </si>
-  <si>
-    <t>E_Silence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_Dead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterAbilityType</t>
-  </si>
-  <si>
-    <t>E_GiveStun</t>
-  </si>
-  <si>
-    <t>E_GiveHold</t>
-  </si>
-  <si>
-    <t>E_GiveSilence</t>
-  </si>
-  <si>
-    <t>E_GiveInvincibility</t>
-  </si>
-  <si>
-    <t>E_Taunt</t>
-  </si>
-  <si>
-    <t>E_GiveHeal</t>
-  </si>
-  <si>
-    <t>E_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_NonAttack</t>
-  </si>
-  <si>
-    <t>E_NonMove</t>
-  </si>
-  <si>
-    <t>E_GiveDraw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_CardBreak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_Damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은 슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_Monstertext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 몬스터는 사망 시 작은 슬라임 _마리로 분열합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 몬스터는 아무런 효과도 가지고 있지 않습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterAbilityType_Abilities[6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_attack_up</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_attack_down</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_speed_up</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_slow</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_stun</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_binding</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_silence</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_godmode</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_aggro_godmode</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_super_armor</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_hit</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_death</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_attack_up</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_attack_down</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_speed_up</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_slow</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_stun</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_binding</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_silence</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_godmode</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_aggro</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_heal</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_recall</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_cant_attack</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_cant_move</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_draw</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_card_destroy</t>
-  </si>
-  <si>
-    <t>Resources/Sprites/Card/card_power_atk</t>
-  </si>
-  <si>
-    <t>Resources/Sprites/Card/card_family_kill</t>
-  </si>
-  <si>
-    <t>Resources/Sprites/Card/card_atk_up</t>
-  </si>
-  <si>
-    <t>Resources/Sprites/Card/card_player_atk_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Sprites/Card/card_player_speed_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Sprites/Card/card_silence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Sprites/Card/card_change_slime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Sprites/Card/card_slow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Sprites/Card/card_draw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Sprites/Card/card_earthquake_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardPowerUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncreaseSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LandAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardTargetType</t>
+  </si>
+  <si>
+    <t>E_NonTarget</t>
+  </si>
+  <si>
+    <t>E_Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardTargetType_TargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드사용방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,7 +887,25 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1175,9 +1324,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC75A5ED-FB39-4147-B10D-8FEAFDC8B52C}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1187,10 +1338,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -1198,10 +1349,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>101</v>
@@ -1209,10 +1360,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>102</v>
@@ -1220,10 +1371,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>103</v>
@@ -1231,10 +1382,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>104</v>
@@ -1242,10 +1393,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>105</v>
@@ -1253,10 +1404,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>106</v>
@@ -1264,10 +1415,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>107</v>
@@ -1275,10 +1426,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>108</v>
@@ -1286,10 +1437,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>109</v>
@@ -1297,10 +1448,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>110</v>
@@ -1308,10 +1459,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>111</v>
@@ -1319,10 +1470,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>112</v>
@@ -1330,172 +1481,217 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C14">
-        <v>201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C15">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C16">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C17">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C18">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C19">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C20">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C21">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C22">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C23">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
       <c r="C24">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C25">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C26">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C27">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C28">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29">
         <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1517,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1528,10 +1724,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1539,10 +1735,10 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1550,10 +1746,10 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1561,10 +1757,10 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1572,10 +1768,10 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1583,10 +1779,10 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1594,10 +1790,10 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1605,10 +1801,10 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1616,10 +1812,10 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1627,10 +1823,10 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1638,10 +1834,10 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1649,10 +1845,10 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1660,10 +1856,10 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1672,7 +1868,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1699,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1710,10 +1906,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1721,10 +1917,10 @@
         <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1732,10 +1928,10 @@
         <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1743,10 +1939,10 @@
         <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1754,10 +1950,10 @@
         <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1765,10 +1961,10 @@
         <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1776,10 +1972,10 @@
         <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1787,10 +1983,10 @@
         <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1798,10 +1994,10 @@
         <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1809,10 +2005,10 @@
         <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1820,10 +2016,10 @@
         <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1831,10 +2027,10 @@
         <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1842,10 +2038,10 @@
         <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1853,10 +2049,10 @@
         <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1864,10 +2060,10 @@
         <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1875,16 +2071,16 @@
         <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1894,325 +2090,422 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E753C-6524-4C6B-A4E5-ABF95E8D22E8}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>301</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1">
         <v>80</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>302</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1">
         <v>50</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>303</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="1">
         <v>100</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>304</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="1">
         <v>60</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>305</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>306</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="1">
         <v>5</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>307</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>308</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="1">
         <v>5</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>309</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>310</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="4">
         <v>60</v>
       </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J11">
     <sortCondition ref="A3:A11"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:H1048576">
+  <conditionalFormatting sqref="A1:J1 A2 C2:J2 A3:J1048576">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$A1&lt;&gt;""</formula>
+      <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2222,327 +2515,478 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B0D43C-E093-40F7-A076-1EB6E0E4406F}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" customWidth="1"/>
+    <col min="6" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="7"/>
+        <v>180</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>501</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
+        <v>157</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
         <v>30</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.7</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>112</v>
+      <c r="G3" s="1">
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="1">
+        <v>103</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" s="1">
         <v>2</v>
       </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="1">
+        <v>158</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>503</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>504</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>505</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>300</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>506</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="E8" s="1">
+        <v>200</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>507</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>150</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="I1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:H1 A5:I11 A3:G4 A2:M2">
+  <conditionalFormatting sqref="A1:I1 A3:H4 A2:N2 A5:I8 A9:H9">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:O1">
+  <conditionalFormatting sqref="O1:P1">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O2">
+  <conditionalFormatting sqref="O2:P2">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
@@ -2553,21 +2997,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x01010015C4E6E158ECAA418C6B952D1FB9372F" ma:contentTypeVersion="7" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="4bbe8cf3ddc823bb2b9b04ca0b6d785f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ba0c99f-4851-42f8-a44c-096a750684f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76ccdb2f795e672dc5e711efdcf336c8" ns2:_="">
     <xsd:import namespace="0ba0c99f-4851-42f8-a44c-096a750684f0"/>
@@ -2731,24 +3160,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA77AE4-4BF9-49E4-9E51-356D8E79B84B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2764,4 +3191,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Project_C/Assets/ExcelTable/Table.xlsx
+++ b/Project_C/Assets/ExcelTable/Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7982520F-242C-432A-BAED-A7D0CBB73EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F56B731-62E9-4E97-A1E2-21460023194B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1620" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
+    <workbookView xWindow="-25815" yWindow="1140" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumTable" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="191">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,87 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resource/Sprites/IconState/state_attack_up</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_attack_down</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_speed_up</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_slow</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_stun</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_binding</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_silence</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_godmode</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_aggro_godmode</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_super_armor</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_hit</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconState/state_death</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_attack_up</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_attack_down</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_speed_up</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_slow</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_stun</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_binding</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_silence</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_godmode</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_aggro</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_heal</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_recall</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_cant_attack</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_cant_move</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_draw</t>
-  </si>
-  <si>
-    <t>Resource/Sprites/IconAbility/ability_card_destroy</t>
-  </si>
-  <si>
     <t>Sprites/Card/card_power_atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,6 +660,123 @@
   <si>
     <t>카드사용방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_attack_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_attack_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_speed_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_binding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_godmode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_aggro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_cant_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_cant_move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconAbility/ability_card_destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconState/state_attack_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconState/state_attack_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconState/state_speed_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconState/state_slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconState/state_stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconState/state_binding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconState/state_silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconState/state_godmode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconState/state_aggro_godmode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconState/state_super_armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconState/state_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/IconState/state_death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerIncreaseSpeedAction</t>
+  </si>
+  <si>
+    <t>PlayerPowerUpAction</t>
+  </si>
+  <si>
+    <t>PlayerSilenceAction</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC75A5ED-FB39-4147-B10D-8FEAFDC8B52C}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1657,10 +1693,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1668,10 +1704,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1679,10 +1715,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1700,7 +1736,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1738,7 +1774,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1749,7 +1785,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1760,7 +1796,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1771,7 +1807,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1782,7 +1818,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1793,7 +1829,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1804,7 +1840,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1815,7 +1851,7 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1826,7 +1862,7 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1837,7 +1873,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1848,7 +1884,7 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1859,7 +1895,7 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1882,7 +1918,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1920,7 +1956,7 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1931,7 +1967,7 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1942,7 +1978,7 @@
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1953,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1964,7 +2000,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1975,7 +2011,7 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1986,7 +2022,7 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1997,7 +2033,7 @@
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2008,7 +2044,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2019,7 +2055,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2030,7 +2066,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2041,7 +2077,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2052,7 +2088,7 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2063,7 +2099,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2074,7 +2110,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2085,6 +2121,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2092,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E753C-6524-4C6B-A4E5-ABF95E8D22E8}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,19 +2153,19 @@
         <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>50</v>
@@ -2143,13 +2180,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -2175,19 +2212,19 @@
         <v>301</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2207,19 +2244,19 @@
         <v>302</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -2239,25 +2276,25 @@
         <v>303</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="I5" s="1">
         <v>100</v>
@@ -2271,25 +2308,25 @@
         <v>304</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="I6" s="1">
         <v>60</v>
@@ -2303,25 +2340,25 @@
         <v>305</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -2335,25 +2372,25 @@
         <v>306</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
@@ -2367,25 +2404,25 @@
         <v>307</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -2399,25 +2436,25 @@
         <v>308</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="I10" s="1">
         <v>5</v>
@@ -2431,25 +2468,25 @@
         <v>309</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
@@ -2463,25 +2500,25 @@
         <v>310</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="I12" s="4">
         <v>60</v>
@@ -2517,7 +2554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B0D43C-E093-40F7-A076-1EB6E0E4406F}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2540,22 +2577,22 @@
         <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>104</v>
@@ -2575,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
@@ -2625,7 +2662,7 @@
         <v>501</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>93</v>
@@ -2675,7 +2712,7 @@
         <v>502</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>94</v>
@@ -2725,10 +2762,10 @@
         <v>503</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2743,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>103</v>
@@ -2775,10 +2812,10 @@
         <v>504</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -2793,10 +2830,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>103</v>
@@ -2825,10 +2862,10 @@
         <v>505</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -2843,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>103</v>
@@ -2875,10 +2912,10 @@
         <v>506</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -2893,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>103</v>
@@ -2925,10 +2962,10 @@
         <v>507</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -2943,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>84</v>
@@ -2997,6 +3034,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x01010015C4E6E158ECAA418C6B952D1FB9372F" ma:contentTypeVersion="7" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="4bbe8cf3ddc823bb2b9b04ca0b6d785f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ba0c99f-4851-42f8-a44c-096a750684f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76ccdb2f795e672dc5e711efdcf336c8" ns2:_="">
     <xsd:import namespace="0ba0c99f-4851-42f8-a44c-096a750684f0"/>
@@ -3160,22 +3212,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA77AE4-4BF9-49E4-9E51-356D8E79B84B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3191,21 +3245,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Project_C/Assets/ExcelTable/Table.xlsx
+++ b/Project_C/Assets/ExcelTable/Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F56B731-62E9-4E97-A1E2-21460023194B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AABDDC4-B393-4AE4-9986-574F097069AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25815" yWindow="1140" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
+    <workbookView xWindow="-25815" yWindow="1140" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumTable" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="194">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,6 +777,18 @@
   </si>
   <si>
     <t>PlayerSilenceAction</t>
+  </si>
+  <si>
+    <t>GuardianStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호석상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_Taunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -923,7 +935,25 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1904,7 +1934,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2116,7 +2146,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2129,7 +2159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E753C-6524-4C6B-A4E5-ABF95E8D22E8}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2536,12 +2566,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:J1 A2 C2:J2 A3:J1048576">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2552,15 +2582,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B0D43C-E093-40F7-A076-1EB6E0E4406F}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
@@ -3007,6 +3037,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>508</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>300</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="O1:P1"/>
@@ -3014,18 +3094,23 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:I1 A3:H4 A2:N2 A5:I8 A9:H9">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:P1">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:P1">
+  <conditionalFormatting sqref="O2:P2">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$A1&lt;&gt;""</formula>
+      <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:P2">
+  <conditionalFormatting sqref="A10:H10">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A2&lt;&gt;""</formula>
+      <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3034,21 +3119,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x01010015C4E6E158ECAA418C6B952D1FB9372F" ma:contentTypeVersion="7" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="4bbe8cf3ddc823bb2b9b04ca0b6d785f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ba0c99f-4851-42f8-a44c-096a750684f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76ccdb2f795e672dc5e711efdcf336c8" ns2:_="">
     <xsd:import namespace="0ba0c99f-4851-42f8-a44c-096a750684f0"/>
@@ -3212,24 +3282,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA77AE4-4BF9-49E4-9E51-356D8E79B84B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3245,4 +3313,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Project_C/Assets/ExcelTable/Table.xlsx
+++ b/Project_C/Assets/ExcelTable/Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AABDDC4-B393-4AE4-9986-574F097069AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D43875-DFE3-4419-91AD-2546E05F17FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25815" yWindow="1140" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6465E1A2-E74A-4EFD-9D75-313785F98CBB}"/>
   </bookViews>
   <sheets>
     <sheet name="EnumTable" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="203">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -788,6 +788,42 @@
   </si>
   <si>
     <t>E_Taunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoblinFirst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린 선봉대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 적을 _초간 속박하는 공격을 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 적의 패를 _장 파괴합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 적에게 공격 당하면 _장 만큼 드로우 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 적에게 공격이 성공하면 _장 만큼 드로우 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 적에게 공격 당하면 고블린 취객을 _마리 소환합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 자신을 제외한 맵에 있는 모든 몬스터에게 도발 상태를 부여합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몬스터는 맵에 있는 모든 몬스터에게 _초간 무적 상태를 부여합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1393,7 +1429,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2582,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B0D43C-E093-40F7-A076-1EB6E0E4406F}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2595,8 +2631,8 @@
     <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
     <col min="6" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -2810,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>125</v>
@@ -2831,7 +2867,7 @@
         <v>103</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="1">
         <v>0</v>
@@ -2860,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>126</v>
@@ -2881,7 +2917,7 @@
         <v>103</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -2910,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>127</v>
@@ -2931,7 +2967,7 @@
         <v>103</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -2960,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>127</v>
@@ -2981,7 +3017,7 @@
         <v>103</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -3010,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>84</v>
@@ -3031,7 +3067,7 @@
         <v>103</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -3060,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>193</v>
@@ -3084,6 +3120,56 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>509</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="4">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4">
+        <v>200</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3093,7 +3179,7 @@
     <mergeCell ref="I1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:I1 A3:H4 A2:N2 A5:I8 A9:H9">
+  <conditionalFormatting sqref="A1:I1 A3:H4 A2:N2 A5:I8 A9:H9 A11:H11">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
@@ -3119,6 +3205,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x01010015C4E6E158ECAA418C6B952D1FB9372F" ma:contentTypeVersion="7" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="4bbe8cf3ddc823bb2b9b04ca0b6d785f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ba0c99f-4851-42f8-a44c-096a750684f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76ccdb2f795e672dc5e711efdcf336c8" ns2:_="">
     <xsd:import namespace="0ba0c99f-4851-42f8-a44c-096a750684f0"/>
@@ -3282,22 +3383,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA77AE4-4BF9-49E4-9E51-356D8E79B84B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3313,21 +3416,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B3BB0C-36B2-46D3-88DC-D85AAEEDA53C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4614B039-1CD1-4631-99C8-FAFC36432D48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>